--- a/data/trans_orig/INICIO_ALCOHOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_ALCOHOL-Edad-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media de inicio de consumición de bebidas alcohólicas años</t>
+          <t>Edad media de inicio de consumición de bebidas alcohólicas años (tasa de respuesta: 97,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INICIO_ALCOHOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_ALCOHOL-Edad-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,81</t>
+          <t>17,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,2</t>
+          <t>16,6; 17,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 17,1</t>
+          <t>16,16; 17,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 17,79</t>
+          <t>15,8; 17,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,97; 17,04</t>
+          <t>15,92; 17,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,56; 17,35</t>
+          <t>16,28; 17,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,21; 16,93</t>
+          <t>16,2; 16,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,36</t>
+          <t>17,72</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,91</t>
+          <t>17,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,14</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 19,31</t>
+          <t>16,97; 18,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,56; 17,42</t>
+          <t>16,56; 17,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 18,93</t>
+          <t>17,12; 19,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 17,67</t>
+          <t>16,4; 17,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,82</t>
+          <t>17,27; 18,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,32</t>
+          <t>16,63; 17,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,02</t>
+          <t>18,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,4</t>
+          <t>19,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,6</t>
+          <t>18,83</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,84</t>
+          <t>17,63; 19,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,11; 18,05</t>
+          <t>17,13; 18,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,52; 20,52</t>
+          <t>18,7; 20,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,06; 19,41</t>
+          <t>18,1; 19,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 19,25</t>
+          <t>18,2; 19,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,36</t>
+          <t>17,6; 18,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,22</t>
+          <t>19,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,59</t>
+          <t>20,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,82</t>
+          <t>19,68</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 20,1</t>
+          <t>18,36; 19,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 18,16</t>
+          <t>17,17; 18,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,69; 21,68</t>
+          <t>19,6; 21,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 20,19</t>
+          <t>18,44; 20,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,3; 20,49</t>
+          <t>19,1; 20,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,75; 18,64</t>
+          <t>17,74; 18,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,06</t>
+          <t>18,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,96</t>
+          <t>21,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,32</t>
+          <t>20,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,44; 19,85</t>
+          <t>18,33; 19,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,36; 18,59</t>
+          <t>17,35; 18,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,9; 23,57</t>
+          <t>20,82; 23,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,41; 21,68</t>
+          <t>19,39; 21,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,67; 21,09</t>
+          <t>19,49; 20,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,28; 19,41</t>
+          <t>18,23; 19,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,35</t>
+          <t>18,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,1</t>
+          <t>23,15</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,9</t>
+          <t>19,81</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,74; 19,74</t>
+          <t>17,77; 18,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,61</t>
+          <t>16,85; 17,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,61; 25,08</t>
+          <t>21,49; 25,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,17; 20,91</t>
+          <t>16,16; 20,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 20,86</t>
+          <t>19,19; 20,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,24; 18,41</t>
+          <t>16,23; 18,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,19</t>
+          <t>18,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,49</t>
+          <t>24,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,35</t>
+          <t>20,87</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,58; 19,04</t>
+          <t>18,06; 20,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,57; 19,85</t>
+          <t>17,58; 19,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,06; 27,8</t>
+          <t>22,15; 29,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,76; 22,96</t>
+          <t>18,88; 23,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,49; 21,73</t>
+          <t>19,77; 22,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,23; 20,3</t>
+          <t>18,27; 20,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,55</t>
+          <t>18,53</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,25</t>
+          <t>20,73</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,64</t>
+          <t>19,41</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,26; 18,97</t>
+          <t>18,26; 18,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,64</t>
+          <t>17,26; 17,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,7; 21,89</t>
+          <t>20,17; 21,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,85; 18,92</t>
+          <t>16,84; 18,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,36; 19,97</t>
+          <t>19,09; 19,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,1; 18,0</t>
+          <t>17,01; 18,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">

--- a/data/trans_orig/INICIO_ALCOHOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_ALCOHOL-Edad-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>16,68</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16,23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>17,1</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>16,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,23</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>16,72</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16,33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>16,41</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>16,33</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>16,7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16,28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>16,73</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>16,57</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>16,28</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>16,23; 17,08</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 16,52</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>16,6; 17,71</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>16,16; 17,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>15,97; 16,52</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>16,15; 17,29</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15,96; 16,58</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>15,8; 17,0</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>15,92; 17,08</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>15,96; 16,58</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>16,37; 17,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 16,46</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>16,28; 17,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>16,2; 16,93</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>16,03; 16,46</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>16,97</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16,49</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>17,72</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>16,96</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>16,49</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17,29</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>17,85</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>16,9</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,29</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>16,96</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16,87</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,78</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,94</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>16,87</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>16,6; 17,38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 16,76</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>16,97; 18,61</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>16,56; 17,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>16,27; 16,76</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>16,49; 17,64</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16,87; 18,03</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>17,12; 19,39</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>16,4; 17,7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>16,87; 18,03</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>16,66; 17,32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 17,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>17,27; 18,6</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>16,63; 17,3</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>16,62; 17,24</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17,47</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16,87</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>18,34</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>16,87</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>18,61</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17,19</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>19,63</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>18,64</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,19</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>17,89</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,01</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>18,83</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,93</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,01</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>17,11; 17,94</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16,56; 17,19</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>17,63; 19,42</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>17,13; 18,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>16,56; 17,19</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>18,1; 19,37</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16,86; 17,53</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>18,7; 20,93</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>18,1; 19,44</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>16,86; 17,53</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>17,58; 18,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,78; 17,23</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>18,2; 19,6</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>17,6; 18,37</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>16,78; 17,23</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>17,55</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16,79</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>19,05</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>17,55</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>16,79</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>19,13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17,79</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>20,5</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>19,11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17,79</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>18,14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17,22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>19,68</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18,12</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>17,22</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>17,18; 18,12</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 17,08</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>18,36; 19,9</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>17,17; 18,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>16,55; 17,08</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>18,45; 19,99</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17,45; 18,24</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>19,6; 21,87</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>18,44; 20,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,45; 18,24</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>17,76; 18,61</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17,0; 17,47</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>19,1; 20,44</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>17,74; 18,6</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17,0; 17,47</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>17,79</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,36</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>18,93</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>17,84</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,36</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>20,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19,44</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>21,84</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>20,35</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>19,44</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>18,73</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,21</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>20,11</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>18,76</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>18,21</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>17,3; 18,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17,02; 18,03</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>18,33; 19,76</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>17,35; 18,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>17,02; 18,03</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>19,35; 21,54</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 20,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>20,82; 23,35</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>19,39; 21,62</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>18,5; 20,96</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>18,21; 19,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 18,93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>19,49; 20,86</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>18,23; 19,43</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>17,75; 18,93</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>17,22</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17,62</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>18,24</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,21</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,62</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>20,8</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19,51</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>23,15</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,85</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>19,51</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>18,38</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18,26</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>19,81</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>16,96</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>18,26</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>16,85; 17,63</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 18,21</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>17,77; 18,83</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,85; 17,63</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,27; 18,21</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>19,54; 22,9</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18,95; 20,2</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>21,49; 25,8</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>16,16; 20,98</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>18,95; 20,2</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>17,87; 19,12</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 18,69</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>19,19; 20,86</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>16,23; 18,41</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17,95; 18,69</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>18,5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>18,86</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>18,45</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21,17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>24,85</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>21,0</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19,17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>20,87</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>19,06</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>17,62; 19,9</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>18,06; 20,5</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>17,58; 19,87</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 23,23</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>22,15; 29,99</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>18,88; 23,11</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 20,45</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>19,77; 22,79</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>18,27; 20,35</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>17,43</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16,9</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>18,53</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>17,43</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>16,9</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>18,83</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17,8</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>20,73</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>17,97</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>17,8</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>17,95</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17,28</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>19,41</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>17,67</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>17,28</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>17,26; 17,65</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 17,04</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>18,26; 18,88</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>17,26; 17,66</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>16,77; 17,04</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>18,45; 19,23</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17,56; 18,1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>20,17; 21,4</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>16,84; 18,95</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>17,56; 18,1</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>17,77; 18,15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 17,44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>19,09; 19,73</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>17,01; 18,0</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>17,16; 17,44</t>
         </is>
       </c>
     </row>
